--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"孟玉兰","id_card_no":"32120319540106010X","phone":"15747806732"}</t>
+          <t>{"user_name":"阎桂花","id_card_no":"511901198306060798","phone":"14558471705"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"墨慧","id_card_no":"141024197506150212","phone":"18075763358"}</t>
+          <t>{"user_name":"空建国","id_card_no":"632321196106276596","phone":"14718072894"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"宓淑英","id_card_no":"14042919841102654X","phone":"13161850174"}</t>
+          <t>{"user_name":"骆林","id_card_no":"350725193701171291","phone":"15387126248"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"康琴","id_card_no":"360321199012192558","phone":"13030135599"}</t>
+          <t>{"user_name":"微勇","id_card_no":"360735193610025517","phone":"13148890220"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"欧帅","id_card_no":"620300196806151764","phone":"18750083565"}</t>
+          <t>{"user_name":"艾桂珍","id_card_no":"440104195511116028","phone":"18989302204"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"粱梅","id_card_no":"630222194212245128","phone":"18760150616"}</t>
+          <t>{"user_name":"鲍晨","id_card_no":"341881196012143040","phone":"18988994538"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>keyValue</t>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"阎桂花","id_card_no":"511901198306060798","phone":"14558471705"}</t>
+          <t>{"user_name":"燕利","id_card_no":"211301194307037707","phone":"15555509326"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"空建国","id_card_no":"632321196106276596","phone":"14718072894"}</t>
+          <t>{"user_name":"牟金凤","id_card_no":"510904200002121641","phone":"18582449803"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"骆林","id_card_no":"350725193701171291","phone":"15387126248"}</t>
+          <t>{"user_name":"池琴","id_card_no":"350901194411195732","phone":"15526974343"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"微勇","id_card_no":"360735193610025517","phone":"13148890220"}</t>
+          <t>{"user_name":"尤雷","id_card_no":"330683199012114082","phone":"15573273161"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"艾桂珍","id_card_no":"440104195511116028","phone":"18989302204"}</t>
+          <t>{"user_name":"陆宁","id_card_no":"500103193409251590","phone":"15591606484"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"鲍晨","id_card_no":"341881196012143040","phone":"18988994538"}</t>
+          <t>{"user_name":"闫雪梅","id_card_no":"430101196512152251","phone":"13740127327"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"燕利","id_card_no":"211301194307037707","phone":"15555509326"}</t>
+          <t>{"user_name":"马楠","id_card_no":"371428197701222429","phone":"13480952325"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"牟金凤","id_card_no":"510904200002121641","phone":"18582449803"}</t>
+          <t>{"user_name":"丰晨","id_card_no":"350505196201188633","phone":"13527869403"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"池琴","id_card_no":"350901194411195732","phone":"15526974343"}</t>
+          <t>{"user_name":"满莉","id_card_no":"341022198411055211","phone":"13247693405"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"尤雷","id_card_no":"330683199012114082","phone":"15573273161"}</t>
+          <t>{"user_name":"夹秀梅","id_card_no":"630225192911068693","phone":"15133833943"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"陆宁","id_card_no":"500103193409251590","phone":"15591606484"}</t>
+          <t>{"user_name":"海慧","id_card_no":"61072819740726800X","phone":"13639090540"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"闫雪梅","id_card_no":"430101196512152251","phone":"13740127327"}</t>
+          <t>{"user_name":"姜燕","id_card_no":"140100193305183128","phone":"14506606165"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"马楠","id_card_no":"371428197701222429","phone":"13480952325"}</t>
+          <t>{"user_name":"令彬","id_card_no":"341525194211216744","phone":"15892092913"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"丰晨","id_card_no":"350505196201188633","phone":"13527869403"}</t>
+          <t>{"user_name":"却楠","id_card_no":"210401198201229068","phone":"18998477552"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"满莉","id_card_no":"341022198411055211","phone":"13247693405"}</t>
+          <t>{"user_name":"施荣","id_card_no":"440000199305035910","phone":"13736600577"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"夹秀梅","id_card_no":"630225192911068693","phone":"15133833943"}</t>
+          <t>{"user_name":"孙桂珍","id_card_no":"211122199107145942","phone":"18933721306"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"海慧","id_card_no":"61072819740726800X","phone":"13639090540"}</t>
+          <t>{"user_name":"段倩","id_card_no":"231085197302144771","phone":"14774432998"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"姜燕","id_card_no":"140100193305183128","phone":"14506606165"}</t>
+          <t>{"user_name":"濮秀珍","id_card_no":"441422196202255248","phone":"15901671144"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"令彬","id_card_no":"341525194211216744","phone":"15892092913"}</t>
+          <t>{"user_name":"卜文","id_card_no":"371327197612282890","phone":"18640598739"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"却楠","id_card_no":"210401198201229068","phone":"18998477552"}</t>
+          <t>{"user_name":"阮杰","id_card_no":"511502195204153302","phone":"13678356745"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"施荣","id_card_no":"440000199305035910","phone":"13736600577"}</t>
+          <t>{"user_name":"逄欣","id_card_no":"411324199305029548","phone":"15730516543"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"孙桂珍","id_card_no":"211122199107145942","phone":"18933721306"}</t>
+          <t>{"user_name":"郎冬梅","id_card_no":"210521194804294793","phone":"18809837711"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"段倩","id_card_no":"231085197302144771","phone":"14774432998"}</t>
+          <t>{"user_name":"孙飞","id_card_no":"610430193211118285","phone":"13810652007"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"濮秀珍","id_card_no":"441422196202255248","phone":"15901671144"}</t>
+          <t>{"user_name":"左婷","id_card_no":"520423195304143352","phone":"15285955146"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"卜文","id_card_no":"371327197612282890","phone":"18640598739"}</t>
+          <t>{"user_name":"于云","id_card_no":"220700194312195845","phone":"18921014978"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"阮杰","id_card_no":"511502195204153302","phone":"13678356745"}</t>
+          <t>{"user_name":"葛杨","id_card_no":"430204194411122251","phone":"15237001019"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"逄欣","id_card_no":"411324199305029548","phone":"15730516543"}</t>
+          <t>{"user_name":"廉丹","id_card_no":"230710194809180432","phone":"15057339278"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"郎冬梅","id_card_no":"210521194804294793","phone":"18809837711"}</t>
+          <t>{"user_name":"郜辉","id_card_no":"120111194407186127","phone":"13624370805"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"孙飞","id_card_no":"610430193211118285","phone":"13810652007"}</t>
+          <t>{"user_name":"漆军","id_card_no":"513223198412215206","phone":"15044439152"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"左婷","id_card_no":"520423195304143352","phone":"15285955146"}</t>
+          <t>{"user_name":"夔艳","id_card_no":"450302197712087031","phone":"18011439941"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"于云","id_card_no":"220700194312195845","phone":"18921014978"}</t>
+          <t>{"user_name":"林辉","id_card_no":"220681198812128180","phone":"18006919596"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"葛杨","id_card_no":"430204194411122251","phone":"15237001019"}</t>
+          <t>{"user_name":"门畅","id_card_no":"14040019380328194X","phone":"18139792379"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"廉丹","id_card_no":"230710194809180432","phone":"15057339278"}</t>
+          <t>{"user_name":"汪建","id_card_no":"610582195407242385","phone":"13953985317"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"郜辉","id_card_no":"120111194407186127","phone":"13624370805"}</t>
+          <t>{"user_name":"慕帅","id_card_no":"350500195601248344","phone":"15566080533"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"漆军","id_card_no":"513223198412215206","phone":"15044439152"}</t>
+          <t>{"user_name":"亓明","id_card_no":"50010720000116255X","phone":"18630956117"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"夔艳","id_card_no":"450302197712087031","phone":"18011439941"}</t>
+          <t>{"user_name":"澹桂荣","id_card_no":"35012219370505957X","phone":"18065243970"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-01001_result.xlsx
+++ b/tests/data/output/一级测试用例-01001_result.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"林辉","id_card_no":"220681198812128180","phone":"18006919596"}</t>
+          <t>{"user_name":"黄想","id_card_no":"632524196109016730","phone":"15547947245"}</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"门畅","id_card_no":"14040019380328194X","phone":"18139792379"}</t>
+          <t>{"user_name":"滕俊","id_card_no":"230110198902058082","phone":"14560287103"}</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>{"user_name":"汪建","id_card_no":"610582195407242385","phone":"13953985317"}</t>
+          <t>{"user_name":"温瑞","id_card_no":"331102194006251008","phone":"15727344351"}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>{"user_name":"慕帅","id_card_no":"350500195601248344","phone":"15566080533"}</t>
+          <t>{"user_name":"何凤兰","id_card_no":"131124194302030454","phone":"13843664652"}</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{"user_name":"亓明","id_card_no":"50010720000116255X","phone":"18630956117"}</t>
+          <t>{"user_name":"宣丽","id_card_no":"632723199608300048","phone":"13169204456"}</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>{"user_name":"澹桂荣","id_card_no":"35012219370505957X","phone":"18065243970"}</t>
+          <t>{"user_name":"宫冬梅","id_card_no":"140110195810202862","phone":"18046692529"}</t>
         </is>
       </c>
     </row>
